--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/filter.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/filter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50012467-1767-450C-9B83-5C17E0C3C4F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C412241-F930-4CEA-AAA1-8955117CDC0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="712" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="712" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="35" r:id="rId1"/>
@@ -24,11 +24,11 @@
     <sheet name="Transmittance_Range" sheetId="54" r:id="rId9"/>
     <sheet name="Dichroic" sheetId="49" r:id="rId10"/>
     <sheet name="Image" sheetId="39" r:id="rId11"/>
-    <sheet name="Pixels" sheetId="43" r:id="rId12"/>
-    <sheet name="Channel" sheetId="44" r:id="rId13"/>
-    <sheet name="Lignt_Path" sheetId="56" r:id="rId14"/>
-    <sheet name="Objective_Settings" sheetId="59" r:id="rId15"/>
-    <sheet name="Unit" sheetId="57" r:id="rId16"/>
+    <sheet name="Imaging_Condition" sheetId="60" r:id="rId12"/>
+    <sheet name="Pixels" sheetId="43" r:id="rId13"/>
+    <sheet name="Channel" sheetId="44" r:id="rId14"/>
+    <sheet name="Lignt_Path" sheetId="56" r:id="rId15"/>
+    <sheet name="Objective_Settings" sheetId="59" r:id="rId16"/>
     <sheet name="waveLength" sheetId="58" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="330">
   <si>
     <t/>
   </si>
@@ -928,18 +928,6 @@
   </si>
   <si>
     <t>[waveLength:590nm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -950,99 +938,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:MHz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"mega-heltz"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000293</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000106</t>
-  </si>
-  <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"micro-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000299</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:mW</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"milli-watt"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000297</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000114</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1125,14 +1021,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1273,6 +1161,53 @@
   </si>
   <si>
     <t>Objective:0:0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Imaging Condition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imaging environment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:imagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:ImagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:ImagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[imagingCondition:0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[imagingEnvironment:0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imaging condition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:nm</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1280,7 +1215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1309,13 +1244,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1349,7 +1277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,16 +1293,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1702,14 +1621,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1725,7 +1644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1733,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1749,7 +1668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
@@ -1765,7 +1684,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -1773,31 +1692,31 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>268</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>239</v>
       </c>
@@ -1805,7 +1724,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>240</v>
       </c>
@@ -1813,7 +1732,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
@@ -1821,7 +1740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -1829,7 +1748,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -1837,7 +1756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -1845,7 +1764,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
@@ -1853,7 +1772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
@@ -1861,7 +1780,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>127</v>
       </c>
@@ -1869,7 +1788,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>129</v>
       </c>
@@ -1877,7 +1796,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>131</v>
       </c>
@@ -1885,7 +1804,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>133</v>
       </c>
@@ -1893,7 +1812,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>135</v>
       </c>
@@ -1901,7 +1820,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>137</v>
       </c>
@@ -1909,7 +1828,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
@@ -1917,7 +1836,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>140</v>
       </c>
@@ -1925,7 +1844,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>180</v>
       </c>
@@ -1933,7 +1852,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -1941,7 +1860,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -1949,7 +1868,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -1957,7 +1876,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
@@ -1965,7 +1884,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>237</v>
       </c>
@@ -1973,12 +1892,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -1993,17 +1912,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +1939,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2029,7 +1948,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2044,7 +1963,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2061,29 +1980,29 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2094,25 +2013,27 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7689A4D9-61F1-4D68-B2DF-2ED5097F8E75}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2135,13 +2056,10 @@
         <v>53</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2156,9 +2074,8 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2179,13 +2096,10 @@
         <v>55</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2208,18 +2122,15 @@
         <v>58</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>214</v>
@@ -2233,24 +2144,21 @@
       <c r="G5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>109</v>
       </c>
@@ -2262,25 +2170,118 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB52E68-82AA-469D-B65E-2CA6A777366A}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C0CBC2-4968-4C18-8159-99B4929EB641}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>63</v>
@@ -2318,7 +2319,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2334,7 +2335,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>75</v>
@@ -2370,7 +2371,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2408,18 +2409,18 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -2443,117 +2444,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>221</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD9475-F076-4E6A-9ACB-779AC7096FAF}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2563,39 +2459,39 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54159E04-4463-49C2-AACD-BE9D64E30BA0}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD9475-F076-4E6A-9ACB-779AC7096FAF}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2604,66 +2500,61 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2673,63 +2564,107 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D8CC14-B6CA-4C3F-B991-A625280367E5}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54159E04-4463-49C2-AACD-BE9D64E30BA0}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>288</v>
+        <v>179</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>289</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>343</v>
+        <v>190</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2739,142 +2674,63 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044A7E92-201C-4E48-BB68-C00F7663E9DA}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D8CC14-B6CA-4C3F-B991-A625280367E5}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" t="s">
-        <v>276</v>
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2886,62 +2742,62 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E889E78-6CE2-45A6-8C48-52AB52C3A2A2}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2952,95 +2808,95 @@
         <v>199</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C5">
         <v>450</v>
       </c>
-      <c r="D5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C6">
         <v>500</v>
       </c>
-      <c r="D6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D6" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C7">
         <v>550</v>
       </c>
-      <c r="D7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D7" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C8">
         <v>590</v>
       </c>
-      <c r="D8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D8" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C9">
         <v>530</v>
       </c>
-      <c r="D9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D9" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="C10">
         <v>570</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C11">
         <v>620</v>
       </c>
-      <c r="D11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D11" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="C12">
         <v>680</v>
       </c>
-      <c r="D12" t="s">
-        <v>262</v>
+      <c r="D12" s="5" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3053,18 +2909,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C387734-4785-4809-ABB8-D3AE5D1EF48D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3078,7 +2936,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3086,7 +2944,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3098,7 +2956,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3112,18 +2970,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
@@ -3131,7 +2989,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>97</v>
       </c>
@@ -3139,7 +2997,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>97</v>
       </c>
@@ -3147,7 +3005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>97</v>
       </c>
@@ -3155,7 +3013,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>97</v>
       </c>
@@ -3163,7 +3021,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
@@ -3171,7 +3029,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>97</v>
       </c>
@@ -3179,7 +3037,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>97</v>
       </c>
@@ -3187,7 +3045,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>97</v>
       </c>
@@ -3195,7 +3053,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>97</v>
       </c>
@@ -3203,7 +3061,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
@@ -3211,7 +3069,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
@@ -3219,7 +3077,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>97</v>
       </c>
@@ -3227,7 +3085,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>97</v>
       </c>
@@ -3235,7 +3093,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
@@ -3243,7 +3101,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
@@ -3263,17 +3121,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3290,7 +3148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3299,7 +3157,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3314,7 +3172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3331,12 +3189,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="D5" t="s">
         <v>244</v>
@@ -3345,12 +3203,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
         <v>244</v>
@@ -3359,12 +3217,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
         <v>244</v>
@@ -3385,18 +3243,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3419,7 +3277,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3430,7 +3288,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3451,7 +3309,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3474,12 +3332,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>196</v>
@@ -3506,19 +3364,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3541,7 +3399,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3552,7 +3410,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3573,7 +3431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3596,12 +3454,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -3628,21 +3486,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3671,7 +3529,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3684,7 +3542,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3711,7 +3569,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3740,21 +3598,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>190</v>
@@ -3766,7 +3624,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>187</v>
       </c>
@@ -3777,7 +3635,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>187</v>
       </c>
@@ -3785,7 +3643,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>187</v>
       </c>
@@ -3793,21 +3651,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3822,15 +3680,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3841,7 +3699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3850,7 +3708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3859,7 +3717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3870,7 +3728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>205</v>
       </c>
@@ -3890,21 +3748,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3933,7 +3791,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3946,7 +3804,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3973,7 +3831,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -4002,24 +3860,24 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>171</v>
@@ -4028,24 +3886,24 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>172</v>
@@ -4054,24 +3912,24 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>173</v>
@@ -4080,24 +3938,24 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>207</v>
@@ -4106,21 +3964,21 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>209</v>
@@ -4129,21 +3987,21 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>210</v>
@@ -4152,21 +4010,21 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>213</v>
@@ -4175,18 +4033,18 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>212</v>
@@ -4204,16 +4062,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4230,7 +4088,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4239,7 +4097,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -4254,7 +4112,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -4271,7 +4129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>171</v>
       </c>
@@ -4279,13 +4137,13 @@
         <v>247</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>172</v>
       </c>
@@ -4293,13 +4151,13 @@
         <v>248</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="E6" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>173</v>
       </c>
@@ -4307,13 +4165,13 @@
         <v>249</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="E7" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>207</v>
       </c>
@@ -4321,13 +4179,13 @@
         <v>250</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>209</v>
       </c>
@@ -4335,13 +4193,13 @@
         <v>248</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="E9" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>210</v>
       </c>
@@ -4349,13 +4207,13 @@
         <v>249</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="E10" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>213</v>
       </c>
@@ -4363,7 +4221,7 @@
         <v>250</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="E11" s="1">
         <v>0.9</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/filter.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C412241-F930-4CEA-AAA1-8955117CDC0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A1A523-D386-4FA5-A82C-7EE71C5EEDDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="712" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="353">
   <si>
     <t/>
   </si>
@@ -356,18 +356,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[objective:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[detector:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[laser:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>model</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -452,18 +440,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[filter:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Dichroic</t>
   </si>
   <si>
@@ -618,18 +594,6 @@
     <t>:cutIn</t>
   </si>
   <si>
-    <t>[transmittanceRange:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[transmittanceRange:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[transmittanceRange:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>filterType:bandPass</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -668,50 +632,6 @@
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/reagent/</t>
   </si>
   <si>
-    <t>[laser:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[laser:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filterSet:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filterSet:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[dichroic:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[dichroic:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detectorType:other</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -756,22 +676,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[transmittanceRange:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>filterType:multiPass</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[transmittanceRange:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[transmittanceRange:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>filterType:shortPass</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -780,10 +688,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[transmittanceRange:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"405100percentsetting"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -808,14 +712,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[objectiveSettings:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>metadata only</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -828,14 +724,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>filter set</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -848,14 +736,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[lightPath:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[lightPath:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dichroic</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -865,10 +745,6 @@
   </si>
   <si>
     <t>:Dichroic</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[dichroic:1]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1184,10 +1060,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[imagingCondition:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[imagingEnvironment:0]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1208,6 +1080,226 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filterSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objectiveSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/laser/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/detector/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/objective/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/filterSet/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/filter/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/transmittanceRange/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/dichroic/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/imagingCondition/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/lightPath/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/filter/objectiveSettings/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser:laser0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser:laser1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser:laser2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector:detector0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective:objective0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filterSet:filterSet1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filterSet:filterSet2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dichroic:dichroic1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dichroic:dichroic3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition:ImagingCondition1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objectiveSettings:objectiveSetting0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath:lightPath1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath:lightPath2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1617,13 +1709,13 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -1694,39 +1786,39 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>74</v>
@@ -1782,122 +1874,218 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
+        <v>296</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>328</v>
+        <v>206</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>329</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +2103,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
@@ -1927,16 +2115,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1957,10 +2145,10 @@
         <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1968,7 +2156,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>95</v>
@@ -1982,27 +2170,27 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2015,9 +2203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7689A4D9-61F1-4D68-B2DF-2ED5097F8E75}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2026,9 +2212,9 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -2056,7 +2242,7 @@
         <v>53</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2096,7 +2282,7 @@
         <v>55</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -2122,45 +2308,45 @@
         <v>58</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2178,10 +2364,10 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -2189,16 +2375,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2216,13 +2402,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2230,30 +2416,30 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>220</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2271,12 +2457,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -2292,7 +2478,7 @@
         <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>63</v>
@@ -2316,7 +2502,7 @@
         <v>62</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -2344,31 +2530,31 @@
         <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -2385,7 +2571,7 @@
         <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>34</v>
@@ -2403,24 +2589,24 @@
         <v>34</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -2438,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>1</v>
@@ -2446,10 +2632,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -2467,10 +2653,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2485,10 +2671,10 @@
         <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2509,10 +2695,10 @@
         <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2526,35 +2712,35 @@
         <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>188</v>
+        <v>328</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2572,10 +2758,10 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -2584,16 +2770,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2611,13 +2797,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2625,51 +2811,52 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>193</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>191</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2682,7 +2869,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -2692,7 +2879,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>91</v>
@@ -2719,7 +2906,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>95</v>
@@ -2727,10 +2914,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2762,13 +2949,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2776,13 +2963,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2791,10 +2978,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2802,101 +2989,101 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="C5">
         <v>450</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="C6">
         <v>500</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="C7">
         <v>550</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="C8">
         <v>590</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="C9">
         <v>530</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="C10">
         <v>570</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="C11">
         <v>620</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="C12">
         <v>680</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2909,16 +3096,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C387734-4785-4809-ABB8-D3AE5D1EF48D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2975,10 +3160,10 @@
         <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -2986,7 +3171,7 @@
         <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -2994,7 +3179,7 @@
         <v>97</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -3002,7 +3187,7 @@
         <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -3010,7 +3195,7 @@
         <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3018,7 +3203,7 @@
         <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -3026,7 +3211,7 @@
         <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>188</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -3034,7 +3219,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -3042,7 +3227,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -3050,7 +3235,7 @@
         <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>124</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -3058,7 +3243,7 @@
         <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>189</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -3066,7 +3251,7 @@
         <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
@@ -3074,7 +3259,7 @@
         <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>191</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
@@ -3082,7 +3267,7 @@
         <v>97</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>192</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
@@ -3090,7 +3275,7 @@
         <v>97</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>193</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
@@ -3098,7 +3283,7 @@
         <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
@@ -3106,7 +3291,7 @@
         <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3124,7 +3309,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
@@ -3191,44 +3376,44 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>324</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3431,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
@@ -3265,16 +3450,16 @@
         <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3297,16 +3482,16 @@
         <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3320,27 +3505,27 @@
         <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -3367,7 +3552,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -3456,22 +3641,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="F5" s="1">
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3489,14 +3674,14 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -3505,28 +3690,28 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -3551,22 +3736,22 @@
         <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -3574,13 +3759,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>95</v>
@@ -3589,83 +3774,83 @@
         <v>95</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>191</v>
+        <v>334</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>124</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>189</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3730,10 +3915,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3751,13 +3936,13 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -3767,28 +3952,28 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -3813,22 +3998,22 @@
         <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -3836,13 +4021,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>95</v>
@@ -3851,203 +4036,203 @@
         <v>95</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>171</v>
+        <v>339</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>172</v>
+        <v>340</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>331</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>173</v>
+        <v>341</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>332</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>207</v>
+        <v>342</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>209</v>
+        <v>343</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>334</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>335</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>336</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4065,7 +4250,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
@@ -4076,16 +4261,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4103,13 +4288,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -4117,13 +4302,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>38</v>
@@ -4131,13 +4316,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>339</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -4145,13 +4330,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>340</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="E6" s="1">
         <v>0.75</v>
@@ -4159,13 +4344,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>341</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="E7" s="1">
         <v>0.85</v>
@@ -4173,13 +4358,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>342</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
@@ -4187,13 +4372,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>343</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="E9" s="1">
         <v>0.75</v>
@@ -4201,13 +4386,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="E10" s="1">
         <v>0.85</v>
@@ -4215,13 +4400,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="E11" s="1">
         <v>0.9</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/filter.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A1A523-D386-4FA5-A82C-7EE71C5EEDDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A94240F-47AF-42E3-B7A7-7DF29BF52A9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="712" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="353">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="354">
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
@@ -112,18 +109,12 @@
     <t>datatype</t>
   </si>
   <si>
-    <t>:Instrument</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>:Manufacturer</t>
-  </si>
-  <si>
     <t>Laser</t>
   </si>
   <si>
@@ -133,30 +124,12 @@
     <t>laser medium</t>
   </si>
   <si>
-    <t>:laserType</t>
-  </si>
-  <si>
-    <t>:laserMedium</t>
-  </si>
-  <si>
-    <t>:Laser</t>
-  </si>
-  <si>
-    <t>:LaserType</t>
-  </si>
-  <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:LaserMedium</t>
-  </si>
-  <si>
     <t>Detector</t>
   </si>
   <si>
-    <t>:Detector</t>
-  </si>
-  <si>
     <t>xsd:float</t>
   </si>
   <si>
@@ -175,27 +148,6 @@
     <t>immersion</t>
   </si>
   <si>
-    <t>:nominalMagnification</t>
-  </si>
-  <si>
-    <t>:correction</t>
-  </si>
-  <si>
-    <t>:lensNA</t>
-  </si>
-  <si>
-    <t>:immersion</t>
-  </si>
-  <si>
-    <t>:Objective</t>
-  </si>
-  <si>
-    <t>:Correction</t>
-  </si>
-  <si>
-    <t>:Immersion</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -205,18 +157,6 @@
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -244,12 +184,6 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:PixelType</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -340,18 +274,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ManufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument:instrument0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -360,34 +286,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>manufacturer</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:detectorType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DetectorType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -396,46 +302,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:instrument</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Instrument</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/image/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -443,9 +309,6 @@
     <t>Dichroic</t>
   </si>
   <si>
-    <t>:Dichroic</t>
-  </si>
-  <si>
     <t>microscopeType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -502,24 +365,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ExcitationFilter</t>
-  </si>
-  <si>
-    <t>:EmissionFilter</t>
-  </si>
-  <si>
-    <t>:FilterSet</t>
-  </si>
-  <si>
-    <t>:dichroic</t>
-  </si>
-  <si>
-    <t>:excitationFilter</t>
-  </si>
-  <si>
-    <t>:emissionFilter</t>
-  </si>
-  <si>
     <t>dichroic</t>
   </si>
   <si>
@@ -536,10 +381,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:lotNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Filter</t>
   </si>
   <si>
@@ -552,27 +393,9 @@
     <t>filer type</t>
   </si>
   <si>
-    <t>:filterWheel</t>
-  </si>
-  <si>
-    <t>:transmittanceRange</t>
-  </si>
-  <si>
-    <t>:filterType</t>
-  </si>
-  <si>
-    <t>:Filter</t>
-  </si>
-  <si>
     <t>xsd:string</t>
   </si>
   <si>
-    <t>:TransmittanceRange</t>
-  </si>
-  <si>
-    <t>:FilterType</t>
-  </si>
-  <si>
     <t>Transmittance Range</t>
   </si>
   <si>
@@ -585,15 +408,6 @@
     <t>cut in</t>
   </si>
   <si>
-    <t>:transmittance</t>
-  </si>
-  <si>
-    <t>:cutOut</t>
-  </si>
-  <si>
-    <t>:cutIn</t>
-  </si>
-  <si>
     <t>filterType:bandPass</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -602,17 +416,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:lightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:LightPath</t>
-  </si>
-  <si>
-    <t>:LightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Lignt Path</t>
   </si>
   <si>
@@ -640,10 +443,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:amplificationGain</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:float</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -652,18 +451,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:gain</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>zoom</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:zoom</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>correction:achromat</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -704,22 +495,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:objectiveSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:ObjectiveSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>metadata only</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:metadataOnly</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:boolean</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -728,23 +507,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:filterSet</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FilterSet</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dichroic</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:dichroic</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Dichroic</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -871,9 +634,6 @@
     <t>Objective Settings</t>
   </si>
   <si>
-    <t>:ObjectiveSettings</t>
-  </si>
-  <si>
     <t>PATO</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -897,10 +657,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType:int16</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1048,18 +804,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:imagingEnvironment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:ImagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:ImagingEnvironment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[imagingEnvironment:0]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1068,10 +812,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:imagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>unitLength:nm</t>
   </si>
   <si>
@@ -1300,6 +1040,310 @@
   </si>
   <si>
     <t>lightPath:lightPath2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ManufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Laser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:laserType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LaserType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:laserMedium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LaserMedium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:detectorType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:amplificationGain</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:gain</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:zoom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nominalMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:correction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Correction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lensNA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:immersion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Immersion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FilterSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lotNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:emissionFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:EmissionFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:excitationFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ExcitationFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Filter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:filterWheel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:transmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:TransmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:filterType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FilterType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutIn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutOut</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:transmittance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ImagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:imagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ImagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ObjectiveSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:objectiveSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:metadataOnly</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:filterSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FilterSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ObjectiveSettings</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1722,375 +1766,376 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>310</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>302</v>
+        <v>227</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>315</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>318</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>319</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2105,31 +2150,31 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2138,59 +2183,59 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>338</v>
+        <v>263</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2221,41 +2266,41 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2263,90 +2308,90 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>322</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>323</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2365,31 +2410,31 @@
   <cols>
     <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2398,48 +2443,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>194</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>330</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>195</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2459,55 +2504,55 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2523,90 +2568,90 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>110</v>
+        <v>337</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>111</v>
+        <v>338</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>112</v>
+        <v>339</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>113</v>
+        <v>340</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>114</v>
+        <v>341</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>115</v>
+        <v>342</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>197</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>323</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>336</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -2624,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>1</v>
@@ -2632,10 +2677,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2656,30 +2701,30 @@
     <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2688,59 +2733,59 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>200</v>
+        <v>346</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>167</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>345</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>201</v>
+        <v>347</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>169</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2758,33 +2803,33 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2793,64 +2838,64 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>203</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>308</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>204</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>329</v>
+        <v>254</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>336</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2876,48 +2921,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>234</v>
+        <v>353</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2946,144 +2991,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <v>450</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="C6">
         <v>500</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="C7">
         <v>550</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>590</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="C9">
         <v>530</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="C10">
         <v>570</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="C11">
         <v>620</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="C12">
         <v>680</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3100,30 +3145,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3131,167 +3176,167 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>94</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>323</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>324</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>329</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>330</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>331</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>332</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>336</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>338</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3311,31 +3356,31 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3344,76 +3389,76 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>324</v>
+        <v>249</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3434,37 +3479,38 @@
     <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3475,57 +3521,57 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>289</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -3553,40 +3599,40 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3597,66 +3643,66 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>46</v>
+        <v>297</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1">
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3677,46 +3723,46 @@
     <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3729,128 +3775,128 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>135</v>
+        <v>308</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>120</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>329</v>
+        <v>254</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>330</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>331</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>332</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3875,50 +3921,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3939,9 +3985,9 @@
     <col min="2" max="2" width="10.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
@@ -3949,36 +3995,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3991,248 +4037,248 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>153</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>154</v>
+        <v>312</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>157</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>330</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>332</v>
+        <v>257</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>336</v>
+        <v>261</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4252,30 +4298,30 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4284,45 +4330,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>164</v>
+        <v>318</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>162</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -4330,13 +4376,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1">
         <v>0.75</v>
@@ -4344,13 +4390,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1">
         <v>0.85</v>
@@ -4358,13 +4404,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
@@ -4372,13 +4418,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>343</v>
+        <v>268</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1">
         <v>0.75</v>
@@ -4386,13 +4432,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1">
         <v>0.85</v>
@@ -4400,13 +4446,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="E11" s="1">
         <v>0.9</v>
